--- a/data/results/quantile/Test_output_5.xlsx
+++ b/data/results/quantile/Test_output_5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2954,22 +2954,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.544754073650615</v>
+        <v>0.529769275609185</v>
       </c>
       <c r="C110" t="n">
-        <v>0.392645112129386</v>
+        <v>0.4415232136999361</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2596279189571314</v>
+        <v>0.3204149284408029</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4141405589962743</v>
+        <v>0.371874194304905</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5788591507610463</v>
+        <v>0.5779241137777364</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3781214892176515</v>
+        <v>0.3122742508280589</v>
       </c>
     </row>
     <row r="111">
@@ -2977,22 +2977,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5925888795381933</v>
+        <v>0.6323383463263679</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2882363601981853</v>
+        <v>0.1901178917359222</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4366603622409983</v>
+        <v>0.3654974676408627</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4885480018810667</v>
+        <v>0.5477559168272813</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5038133804044698</v>
+        <v>0.4635968975572326</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5816133253212343</v>
+        <v>0.6780334750779087</v>
       </c>
     </row>
     <row r="112">
@@ -3000,22 +3000,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5480785392691925</v>
+        <v>0.5631649477171133</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2916455150217522</v>
+        <v>0.2618890425466592</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2900740830497328</v>
+        <v>0.2750595236985117</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4590491788563748</v>
+        <v>0.4302946245706227</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5762064845022015</v>
+        <v>0.4964658505278745</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4456331607834429</v>
+        <v>0.4438334268487746</v>
       </c>
     </row>
     <row r="113">
@@ -3023,22 +3023,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5492133520226868</v>
+        <v>0.5620825062079943</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4368302528345245</v>
+        <v>0.4091403940198728</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5698618264122306</v>
+        <v>0.4215857982084653</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4426327615529999</v>
+        <v>0.3582477977477526</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5207508658985922</v>
+        <v>0.5080013499388601</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5836260352134174</v>
+        <v>0.4784874917218537</v>
       </c>
     </row>
     <row r="114">
@@ -3046,22 +3046,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5353579224138367</v>
+        <v>0.5023303515123798</v>
       </c>
       <c r="C114" t="n">
-        <v>0.360361263381242</v>
+        <v>0.4331451074181368</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3919578273613356</v>
+        <v>0.3657182029726385</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5708996191389815</v>
+        <v>0.8046198145314463</v>
       </c>
       <c r="F114" t="n">
-        <v>0.568408703997597</v>
+        <v>0.566641823479535</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5711268967513858</v>
+        <v>0.7044126098360861</v>
       </c>
     </row>
     <row r="115">
@@ -3069,22 +3069,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5702730391848069</v>
+        <v>0.5991584662437689</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3162621111045951</v>
+        <v>0.4084267771323803</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6079131041846487</v>
+        <v>0.6135037379786386</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4785211224923671</v>
+        <v>0.5057691883906384</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5452019616562351</v>
+        <v>0.496668096732223</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6066500592610679</v>
+        <v>0.5911023273963321</v>
       </c>
     </row>
     <row r="116">
@@ -3092,22 +3092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5378901631895225</v>
+        <v>0.5436929981513055</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4387573514292206</v>
+        <v>0.3616688724994265</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3969027797755539</v>
+        <v>0.3211834875831283</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4177591541670608</v>
+        <v>0.455370820170438</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5536653480926622</v>
+        <v>0.519166051165399</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5752476103294138</v>
+        <v>0.5643402495006151</v>
       </c>
     </row>
     <row r="117">
@@ -3115,22 +3115,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5288703019040345</v>
+        <v>0.4782710512677258</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3929157007900099</v>
+        <v>0.449207908284614</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4760635176063052</v>
+        <v>0.6179155904104967</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4844699475094196</v>
+        <v>0.6028148676355362</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5234137313640673</v>
+        <v>0.6484372148302686</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2894533831750917</v>
+        <v>0.1509917405826371</v>
       </c>
     </row>
     <row r="118">
@@ -3138,22 +3138,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6094555156764779</v>
+        <v>0.6472525103117552</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6509550430078409</v>
+        <v>0.5816850843614332</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5155948757459955</v>
+        <v>0.249592739588386</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4576784630115933</v>
+        <v>0.6413279231616894</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5812977329716399</v>
+        <v>0.6554468241305517</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6403221569063668</v>
+        <v>0.7374330844960618</v>
       </c>
     </row>
     <row r="119">
@@ -3161,22 +3161,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.556907483033529</v>
+        <v>0.5299537627872645</v>
       </c>
       <c r="C119" t="n">
-        <v>0.381216503025383</v>
+        <v>0.3998469303123706</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6077638099044727</v>
+        <v>0.5585907458455309</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5475719897982325</v>
+        <v>0.6764724682510991</v>
       </c>
       <c r="F119" t="n">
-        <v>0.546281736716964</v>
+        <v>0.5610583509526862</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5071412621557151</v>
+        <v>0.3987786169117068</v>
       </c>
     </row>
     <row r="120">
@@ -3184,22 +3184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5781929070893476</v>
+        <v>0.5731652126305931</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2742503523130521</v>
+        <v>0.2208687372162208</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7947662817503552</v>
+        <v>0.4162937976131551</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6254957189134472</v>
+        <v>0.8023201835778411</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5229290105833762</v>
+        <v>0.5698856155226156</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5087877393239151</v>
+        <v>0.4645707007625163</v>
       </c>
     </row>
     <row r="121">
@@ -3207,22 +3207,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5328836360185277</v>
+        <v>0.5079668260919905</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4065313076512837</v>
+        <v>0.2479728603652463</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6083515948716383</v>
+        <v>0.715767051602037</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5470855804563074</v>
+        <v>0.6716177017993079</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5200027260458956</v>
+        <v>0.5968984965071903</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4300491792667098</v>
+        <v>0.3832204811068715</v>
       </c>
     </row>
   </sheetData>
